--- a/limits2.xlsx
+++ b/limits2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>master WO №</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>Аргон газ особой чистоты 6.0 ТУ 2114-003-37924839-2016 (99,9999%)</t>
+  </si>
+  <si>
+    <t>Tsh 6.1-00203849-59:2008 Азот (газ ҳолда, 40 литр, сиғими 6,2 м3 баллонда)</t>
   </si>
 </sst>
 </file>
@@ -416,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -679,6 +682,66 @@
         <v>7.7</v>
       </c>
     </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>81769</v>
+      </c>
+      <c r="C14">
+        <v>6766</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14">
+        <v>7.7</v>
+      </c>
+      <c r="F14">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>81769</v>
+      </c>
+      <c r="C15">
+        <v>6773</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15">
+        <v>7.7</v>
+      </c>
+      <c r="F15">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>81769</v>
+      </c>
+      <c r="C16">
+        <v>6828</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
